--- a/excel/finished/原供料/4.煤头外排记录.xlsx
+++ b/excel/finished/原供料/4.煤头外排记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="煤头外排记录" sheetId="3" r:id="rId1"/>
@@ -92,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -171,7 +171,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,8 +228,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,29 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -230,83 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="28"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -341,19 +341,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,25 +443,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,127 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -673,13 +699,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,36 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -763,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,144 +775,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,7 +957,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,9 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1311,992 +1320,992 @@
   <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3"/>
-    <col min="2" max="2" width="13.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="3.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="10.3796296296296" style="5"/>
+    <col min="2" max="2" width="13.6296296296296" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="6" customWidth="1"/>
+    <col min="5" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="3.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="3.37962962962963" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.75" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="21"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" ht="26.25" customHeight="1" spans="1:12">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="26.25" customHeight="1" spans="1:12">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" ht="20.25" spans="1:10">
-      <c r="A4" s="11" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" ht="20.4" spans="1:10">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" ht="20.25" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" ht="20.4" spans="1:12">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" ht="20.25" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" ht="20.4" spans="1:12">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" ht="20.25" spans="1:10">
-      <c r="A7" s="14" t="str">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" ht="20.4" spans="1:10">
+      <c r="A7" s="18" t="str">
         <f>IF(_ygl_month_all!A2="","",_ygl_month_all!A2)</f>
         <v/>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="19" t="str">
         <f>IF(_ygl_month_all!B2="","",_ygl_month_all!B2)</f>
         <v/>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="19" t="str">
         <f>IF(_ygl_month_all!C2="","",_ygl_month_all!C2)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="19" t="str">
         <f>IF(_ygl_month_all!D2="","",_ygl_month_all!D2)</f>
         <v/>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="20">
         <f t="shared" ref="E7:E37" si="0">SUM(B7:D7)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" ht="20.25" spans="1:10">
-      <c r="A8" s="14" t="str">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" ht="20.4" spans="1:10">
+      <c r="A8" s="18" t="str">
         <f>IF(_ygl_month_all!A3="","",_ygl_month_all!A3)</f>
         <v/>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="19" t="str">
         <f>IF(_ygl_month_all!B3="","",_ygl_month_all!B3)</f>
         <v/>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="19" t="str">
         <f>IF(_ygl_month_all!C3="","",_ygl_month_all!C3)</f>
         <v/>
       </c>
-      <c r="D8" s="15" t="str">
+      <c r="D8" s="19" t="str">
         <f>IF(_ygl_month_all!D3="","",_ygl_month_all!D3)</f>
         <v/>
       </c>
-      <c r="E8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" ht="20.25" spans="1:10">
-      <c r="A9" s="14" t="str">
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" ht="20.4" spans="1:10">
+      <c r="A9" s="18" t="str">
         <f>IF(_ygl_month_all!A4="","",_ygl_month_all!A4)</f>
         <v/>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="19" t="str">
         <f>IF(_ygl_month_all!B4="","",_ygl_month_all!B4)</f>
         <v/>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_ygl_month_all!C4="","",_ygl_month_all!C4)</f>
         <v/>
       </c>
-      <c r="D9" s="15" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_ygl_month_all!D4="","",_ygl_month_all!D4)</f>
         <v/>
       </c>
-      <c r="E9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" ht="20.25" spans="1:10">
-      <c r="A10" s="14" t="str">
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" ht="20.4" spans="1:10">
+      <c r="A10" s="18" t="str">
         <f>IF(_ygl_month_all!A5="","",_ygl_month_all!A5)</f>
         <v/>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="19" t="str">
         <f>IF(_ygl_month_all!B5="","",_ygl_month_all!B5)</f>
         <v/>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="19" t="str">
         <f>IF(_ygl_month_all!C5="","",_ygl_month_all!C5)</f>
         <v/>
       </c>
-      <c r="D10" s="15" t="str">
+      <c r="D10" s="19" t="str">
         <f>IF(_ygl_month_all!D5="","",_ygl_month_all!D5)</f>
         <v/>
       </c>
-      <c r="E10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" ht="20.25" spans="1:10">
-      <c r="A11" s="14" t="str">
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" ht="20.4" spans="1:10">
+      <c r="A11" s="18" t="str">
         <f>IF(_ygl_month_all!A6="","",_ygl_month_all!A6)</f>
         <v/>
       </c>
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="19" t="str">
         <f>IF(_ygl_month_all!B6="","",_ygl_month_all!B6)</f>
         <v/>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="19" t="str">
         <f>IF(_ygl_month_all!C6="","",_ygl_month_all!C6)</f>
         <v/>
       </c>
-      <c r="D11" s="15" t="str">
+      <c r="D11" s="19" t="str">
         <f>IF(_ygl_month_all!D6="","",_ygl_month_all!D6)</f>
         <v/>
       </c>
-      <c r="E11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" ht="20.25" spans="1:10">
-      <c r="A12" s="14" t="str">
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" ht="20.4" spans="1:10">
+      <c r="A12" s="18" t="str">
         <f>IF(_ygl_month_all!A7="","",_ygl_month_all!A7)</f>
         <v/>
       </c>
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="19" t="str">
         <f>IF(_ygl_month_all!B7="","",_ygl_month_all!B7)</f>
         <v/>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="19" t="str">
         <f>IF(_ygl_month_all!C7="","",_ygl_month_all!C7)</f>
         <v/>
       </c>
-      <c r="D12" s="15" t="str">
+      <c r="D12" s="19" t="str">
         <f>IF(_ygl_month_all!D7="","",_ygl_month_all!D7)</f>
         <v/>
       </c>
-      <c r="E12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" ht="20.25" spans="1:10">
-      <c r="A13" s="14" t="str">
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" ht="20.4" spans="1:10">
+      <c r="A13" s="18" t="str">
         <f>IF(_ygl_month_all!A8="","",_ygl_month_all!A8)</f>
         <v/>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="19" t="str">
         <f>IF(_ygl_month_all!B8="","",_ygl_month_all!B8)</f>
         <v/>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="19" t="str">
         <f>IF(_ygl_month_all!C8="","",_ygl_month_all!C8)</f>
         <v/>
       </c>
-      <c r="D13" s="15" t="str">
+      <c r="D13" s="19" t="str">
         <f>IF(_ygl_month_all!D8="","",_ygl_month_all!D8)</f>
         <v/>
       </c>
-      <c r="E13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" ht="20.25" spans="1:10">
-      <c r="A14" s="14" t="str">
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" ht="20.4" spans="1:10">
+      <c r="A14" s="18" t="str">
         <f>IF(_ygl_month_all!A9="","",_ygl_month_all!A9)</f>
         <v/>
       </c>
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="19" t="str">
         <f>IF(_ygl_month_all!B9="","",_ygl_month_all!B9)</f>
         <v/>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="19" t="str">
         <f>IF(_ygl_month_all!C9="","",_ygl_month_all!C9)</f>
         <v/>
       </c>
-      <c r="D14" s="15" t="str">
+      <c r="D14" s="19" t="str">
         <f>IF(_ygl_month_all!D9="","",_ygl_month_all!D9)</f>
         <v/>
       </c>
-      <c r="E14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" ht="20.25" spans="1:10">
-      <c r="A15" s="14" t="str">
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" ht="20.4" spans="1:10">
+      <c r="A15" s="18" t="str">
         <f>IF(_ygl_month_all!A10="","",_ygl_month_all!A10)</f>
         <v/>
       </c>
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="19" t="str">
         <f>IF(_ygl_month_all!B10="","",_ygl_month_all!B10)</f>
         <v/>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF(_ygl_month_all!C10="","",_ygl_month_all!C10)</f>
         <v/>
       </c>
-      <c r="D15" s="15" t="str">
+      <c r="D15" s="19" t="str">
         <f>IF(_ygl_month_all!D10="","",_ygl_month_all!D10)</f>
         <v/>
       </c>
-      <c r="E15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" ht="20.25" spans="1:10">
-      <c r="A16" s="14" t="str">
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" ht="20.4" spans="1:10">
+      <c r="A16" s="18" t="str">
         <f>IF(_ygl_month_all!A11="","",_ygl_month_all!A11)</f>
         <v/>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="19" t="str">
         <f>IF(_ygl_month_all!B11="","",_ygl_month_all!B11)</f>
         <v/>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="19" t="str">
         <f>IF(_ygl_month_all!C11="","",_ygl_month_all!C11)</f>
         <v/>
       </c>
-      <c r="D16" s="15" t="str">
+      <c r="D16" s="19" t="str">
         <f>IF(_ygl_month_all!D11="","",_ygl_month_all!D11)</f>
         <v/>
       </c>
-      <c r="E16" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" ht="20.25" spans="1:10">
-      <c r="A17" s="14" t="str">
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" ht="20.4" spans="1:10">
+      <c r="A17" s="18" t="str">
         <f>IF(_ygl_month_all!A12="","",_ygl_month_all!A12)</f>
         <v/>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="19" t="str">
         <f>IF(_ygl_month_all!B12="","",_ygl_month_all!B12)</f>
         <v/>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="19" t="str">
         <f>IF(_ygl_month_all!C12="","",_ygl_month_all!C12)</f>
         <v/>
       </c>
-      <c r="D17" s="15" t="str">
+      <c r="D17" s="19" t="str">
         <f>IF(_ygl_month_all!D12="","",_ygl_month_all!D12)</f>
         <v/>
       </c>
-      <c r="E17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" ht="20.25" spans="1:10">
-      <c r="A18" s="14" t="str">
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" ht="20.4" spans="1:10">
+      <c r="A18" s="18" t="str">
         <f>IF(_ygl_month_all!A13="","",_ygl_month_all!A13)</f>
         <v/>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="19" t="str">
         <f>IF(_ygl_month_all!B13="","",_ygl_month_all!B13)</f>
         <v/>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="19" t="str">
         <f>IF(_ygl_month_all!C13="","",_ygl_month_all!C13)</f>
         <v/>
       </c>
-      <c r="D18" s="15" t="str">
+      <c r="D18" s="19" t="str">
         <f>IF(_ygl_month_all!D13="","",_ygl_month_all!D13)</f>
         <v/>
       </c>
-      <c r="E18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" ht="20.25" spans="1:10">
-      <c r="A19" s="14" t="str">
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" ht="20.4" spans="1:10">
+      <c r="A19" s="18" t="str">
         <f>IF(_ygl_month_all!A14="","",_ygl_month_all!A14)</f>
         <v/>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="19" t="str">
         <f>IF(_ygl_month_all!B14="","",_ygl_month_all!B14)</f>
         <v/>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="19" t="str">
         <f>IF(_ygl_month_all!C14="","",_ygl_month_all!C14)</f>
         <v/>
       </c>
-      <c r="D19" s="15" t="str">
+      <c r="D19" s="19" t="str">
         <f>IF(_ygl_month_all!D14="","",_ygl_month_all!D14)</f>
         <v/>
       </c>
-      <c r="E19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" ht="20.25" spans="1:10">
-      <c r="A20" s="14" t="str">
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" ht="20.4" spans="1:10">
+      <c r="A20" s="18" t="str">
         <f>IF(_ygl_month_all!A15="","",_ygl_month_all!A15)</f>
         <v/>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="19" t="str">
         <f>IF(_ygl_month_all!B15="","",_ygl_month_all!B15)</f>
         <v/>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="19" t="str">
         <f>IF(_ygl_month_all!C15="","",_ygl_month_all!C15)</f>
         <v/>
       </c>
-      <c r="D20" s="15" t="str">
+      <c r="D20" s="19" t="str">
         <f>IF(_ygl_month_all!D15="","",_ygl_month_all!D15)</f>
         <v/>
       </c>
-      <c r="E20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" ht="20.25" spans="1:10">
-      <c r="A21" s="14" t="str">
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" ht="20.4" spans="1:10">
+      <c r="A21" s="18" t="str">
         <f>IF(_ygl_month_all!A16="","",_ygl_month_all!A16)</f>
         <v/>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="19" t="str">
         <f>IF(_ygl_month_all!B16="","",_ygl_month_all!B16)</f>
         <v/>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="19" t="str">
         <f>IF(_ygl_month_all!C16="","",_ygl_month_all!C16)</f>
         <v/>
       </c>
-      <c r="D21" s="15" t="str">
+      <c r="D21" s="19" t="str">
         <f>IF(_ygl_month_all!D16="","",_ygl_month_all!D16)</f>
         <v/>
       </c>
-      <c r="E21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" ht="20.25" spans="1:10">
-      <c r="A22" s="14" t="str">
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" ht="20.4" spans="1:10">
+      <c r="A22" s="18" t="str">
         <f>IF(_ygl_month_all!A17="","",_ygl_month_all!A17)</f>
         <v/>
       </c>
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="19" t="str">
         <f>IF(_ygl_month_all!B17="","",_ygl_month_all!B17)</f>
         <v/>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="19" t="str">
         <f>IF(_ygl_month_all!C17="","",_ygl_month_all!C17)</f>
         <v/>
       </c>
-      <c r="D22" s="15" t="str">
+      <c r="D22" s="19" t="str">
         <f>IF(_ygl_month_all!D17="","",_ygl_month_all!D17)</f>
         <v/>
       </c>
-      <c r="E22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" ht="20.25" spans="1:10">
-      <c r="A23" s="14" t="str">
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" ht="20.4" spans="1:10">
+      <c r="A23" s="18" t="str">
         <f>IF(_ygl_month_all!A18="","",_ygl_month_all!A18)</f>
         <v/>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="19" t="str">
         <f>IF(_ygl_month_all!B18="","",_ygl_month_all!B18)</f>
         <v/>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="19" t="str">
         <f>IF(_ygl_month_all!C18="","",_ygl_month_all!C18)</f>
         <v/>
       </c>
-      <c r="D23" s="15" t="str">
+      <c r="D23" s="19" t="str">
         <f>IF(_ygl_month_all!D18="","",_ygl_month_all!D18)</f>
         <v/>
       </c>
-      <c r="E23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" ht="20.25" spans="1:10">
-      <c r="A24" s="14" t="str">
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" ht="20.4" spans="1:10">
+      <c r="A24" s="18" t="str">
         <f>IF(_ygl_month_all!A19="","",_ygl_month_all!A19)</f>
         <v/>
       </c>
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="19" t="str">
         <f>IF(_ygl_month_all!B19="","",_ygl_month_all!B19)</f>
         <v/>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="19" t="str">
         <f>IF(_ygl_month_all!C19="","",_ygl_month_all!C19)</f>
         <v/>
       </c>
-      <c r="D24" s="15" t="str">
+      <c r="D24" s="19" t="str">
         <f>IF(_ygl_month_all!D19="","",_ygl_month_all!D19)</f>
         <v/>
       </c>
-      <c r="E24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" ht="20.25" spans="1:10">
-      <c r="A25" s="14" t="str">
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" ht="20.4" spans="1:10">
+      <c r="A25" s="18" t="str">
         <f>IF(_ygl_month_all!A20="","",_ygl_month_all!A20)</f>
         <v/>
       </c>
-      <c r="B25" s="15" t="str">
+      <c r="B25" s="19" t="str">
         <f>IF(_ygl_month_all!B20="","",_ygl_month_all!B20)</f>
         <v/>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="19" t="str">
         <f>IF(_ygl_month_all!C20="","",_ygl_month_all!C20)</f>
         <v/>
       </c>
-      <c r="D25" s="15" t="str">
+      <c r="D25" s="19" t="str">
         <f>IF(_ygl_month_all!D20="","",_ygl_month_all!D20)</f>
         <v/>
       </c>
-      <c r="E25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" ht="20.25" spans="1:10">
-      <c r="A26" s="14" t="str">
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" ht="20.4" spans="1:10">
+      <c r="A26" s="18" t="str">
         <f>IF(_ygl_month_all!A21="","",_ygl_month_all!A21)</f>
         <v/>
       </c>
-      <c r="B26" s="15" t="str">
+      <c r="B26" s="19" t="str">
         <f>IF(_ygl_month_all!B21="","",_ygl_month_all!B21)</f>
         <v/>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="19" t="str">
         <f>IF(_ygl_month_all!C21="","",_ygl_month_all!C21)</f>
         <v/>
       </c>
-      <c r="D26" s="15" t="str">
+      <c r="D26" s="19" t="str">
         <f>IF(_ygl_month_all!D21="","",_ygl_month_all!D21)</f>
         <v/>
       </c>
-      <c r="E26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" ht="20.25" spans="1:10">
-      <c r="A27" s="14" t="str">
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" ht="20.4" spans="1:10">
+      <c r="A27" s="18" t="str">
         <f>IF(_ygl_month_all!A22="","",_ygl_month_all!A22)</f>
         <v/>
       </c>
-      <c r="B27" s="15" t="str">
+      <c r="B27" s="19" t="str">
         <f>IF(_ygl_month_all!B22="","",_ygl_month_all!B22)</f>
         <v/>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="19" t="str">
         <f>IF(_ygl_month_all!C22="","",_ygl_month_all!C22)</f>
         <v/>
       </c>
-      <c r="D27" s="15" t="str">
+      <c r="D27" s="19" t="str">
         <f>IF(_ygl_month_all!D22="","",_ygl_month_all!D22)</f>
         <v/>
       </c>
-      <c r="E27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" ht="20.25" spans="1:10">
-      <c r="A28" s="14" t="str">
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" ht="20.4" spans="1:10">
+      <c r="A28" s="18" t="str">
         <f>IF(_ygl_month_all!A23="","",_ygl_month_all!A23)</f>
         <v/>
       </c>
-      <c r="B28" s="15" t="str">
+      <c r="B28" s="19" t="str">
         <f>IF(_ygl_month_all!B23="","",_ygl_month_all!B23)</f>
         <v/>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="19" t="str">
         <f>IF(_ygl_month_all!C23="","",_ygl_month_all!C23)</f>
         <v/>
       </c>
-      <c r="D28" s="15" t="str">
+      <c r="D28" s="19" t="str">
         <f>IF(_ygl_month_all!D23="","",_ygl_month_all!D23)</f>
         <v/>
       </c>
-      <c r="E28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" ht="20.25" spans="1:10">
-      <c r="A29" s="14" t="str">
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" ht="20.4" spans="1:10">
+      <c r="A29" s="18" t="str">
         <f>IF(_ygl_month_all!A24="","",_ygl_month_all!A24)</f>
         <v/>
       </c>
-      <c r="B29" s="15" t="str">
+      <c r="B29" s="19" t="str">
         <f>IF(_ygl_month_all!B24="","",_ygl_month_all!B24)</f>
         <v/>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="19" t="str">
         <f>IF(_ygl_month_all!C24="","",_ygl_month_all!C24)</f>
         <v/>
       </c>
-      <c r="D29" s="15" t="str">
+      <c r="D29" s="19" t="str">
         <f>IF(_ygl_month_all!D24="","",_ygl_month_all!D24)</f>
         <v/>
       </c>
-      <c r="E29" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" ht="20.25" spans="1:10">
-      <c r="A30" s="14" t="str">
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" ht="20.4" spans="1:10">
+      <c r="A30" s="18" t="str">
         <f>IF(_ygl_month_all!A25="","",_ygl_month_all!A25)</f>
         <v/>
       </c>
-      <c r="B30" s="15" t="str">
+      <c r="B30" s="19" t="str">
         <f>IF(_ygl_month_all!B25="","",_ygl_month_all!B25)</f>
         <v/>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="19" t="str">
         <f>IF(_ygl_month_all!C25="","",_ygl_month_all!C25)</f>
         <v/>
       </c>
-      <c r="D30" s="15" t="str">
+      <c r="D30" s="19" t="str">
         <f>IF(_ygl_month_all!D25="","",_ygl_month_all!D25)</f>
         <v/>
       </c>
-      <c r="E30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" ht="20.25" spans="1:10">
-      <c r="A31" s="14" t="str">
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" ht="20.4" spans="1:10">
+      <c r="A31" s="18" t="str">
         <f>IF(_ygl_month_all!A26="","",_ygl_month_all!A26)</f>
         <v/>
       </c>
-      <c r="B31" s="15" t="str">
+      <c r="B31" s="19" t="str">
         <f>IF(_ygl_month_all!B26="","",_ygl_month_all!B26)</f>
         <v/>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="C31" s="19" t="str">
         <f>IF(_ygl_month_all!C26="","",_ygl_month_all!C26)</f>
         <v/>
       </c>
-      <c r="D31" s="15" t="str">
+      <c r="D31" s="19" t="str">
         <f>IF(_ygl_month_all!D26="","",_ygl_month_all!D26)</f>
         <v/>
       </c>
-      <c r="E31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" ht="20.25" spans="1:10">
-      <c r="A32" s="14" t="str">
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" ht="20.4" spans="1:10">
+      <c r="A32" s="18" t="str">
         <f>IF(_ygl_month_all!A27="","",_ygl_month_all!A27)</f>
         <v/>
       </c>
-      <c r="B32" s="15" t="str">
+      <c r="B32" s="19" t="str">
         <f>IF(_ygl_month_all!B27="","",_ygl_month_all!B27)</f>
         <v/>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C32" s="19" t="str">
         <f>IF(_ygl_month_all!C27="","",_ygl_month_all!C27)</f>
         <v/>
       </c>
-      <c r="D32" s="15" t="str">
+      <c r="D32" s="19" t="str">
         <f>IF(_ygl_month_all!D27="","",_ygl_month_all!D27)</f>
         <v/>
       </c>
-      <c r="E32" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" ht="20.25" spans="1:10">
-      <c r="A33" s="14" t="str">
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" ht="20.4" spans="1:10">
+      <c r="A33" s="18" t="str">
         <f>IF(_ygl_month_all!A28="","",_ygl_month_all!A28)</f>
         <v/>
       </c>
-      <c r="B33" s="15" t="str">
+      <c r="B33" s="19" t="str">
         <f>IF(_ygl_month_all!B28="","",_ygl_month_all!B28)</f>
         <v/>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="19" t="str">
         <f>IF(_ygl_month_all!C28="","",_ygl_month_all!C28)</f>
         <v/>
       </c>
-      <c r="D33" s="15" t="str">
+      <c r="D33" s="19" t="str">
         <f>IF(_ygl_month_all!D28="","",_ygl_month_all!D28)</f>
         <v/>
       </c>
-      <c r="E33" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" ht="20.25" spans="1:10">
-      <c r="A34" s="14" t="str">
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" ht="20.4" spans="1:10">
+      <c r="A34" s="18" t="str">
         <f>IF(_ygl_month_all!A29="","",_ygl_month_all!A29)</f>
         <v/>
       </c>
-      <c r="B34" s="15" t="str">
+      <c r="B34" s="19" t="str">
         <f>IF(_ygl_month_all!B29="","",_ygl_month_all!B29)</f>
         <v/>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="19" t="str">
         <f>IF(_ygl_month_all!C29="","",_ygl_month_all!C29)</f>
         <v/>
       </c>
-      <c r="D34" s="15" t="str">
+      <c r="D34" s="19" t="str">
         <f>IF(_ygl_month_all!D29="","",_ygl_month_all!D29)</f>
         <v/>
       </c>
-      <c r="E34" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" ht="20.25" spans="1:10">
-      <c r="A35" s="14" t="str">
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" ht="20.4" spans="1:10">
+      <c r="A35" s="18" t="str">
         <f>IF(_ygl_month_all!A30="","",_ygl_month_all!A30)</f>
         <v/>
       </c>
-      <c r="B35" s="15" t="str">
+      <c r="B35" s="19" t="str">
         <f>IF(_ygl_month_all!B30="","",_ygl_month_all!B30)</f>
         <v/>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="C35" s="19" t="str">
         <f>IF(_ygl_month_all!C30="","",_ygl_month_all!C30)</f>
         <v/>
       </c>
-      <c r="D35" s="15" t="str">
+      <c r="D35" s="19" t="str">
         <f>IF(_ygl_month_all!D30="","",_ygl_month_all!D30)</f>
         <v/>
       </c>
-      <c r="E35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" ht="20.25" spans="1:10">
-      <c r="A36" s="14" t="str">
+      <c r="E35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" ht="20.4" spans="1:10">
+      <c r="A36" s="18" t="str">
         <f>IF(_ygl_month_all!A31="","",_ygl_month_all!A31)</f>
         <v/>
       </c>
-      <c r="B36" s="15" t="str">
+      <c r="B36" s="19" t="str">
         <f>IF(_ygl_month_all!B31="","",_ygl_month_all!B31)</f>
         <v/>
       </c>
-      <c r="C36" s="15" t="str">
+      <c r="C36" s="19" t="str">
         <f>IF(_ygl_month_all!C31="","",_ygl_month_all!C31)</f>
         <v/>
       </c>
-      <c r="D36" s="15" t="str">
+      <c r="D36" s="19" t="str">
         <f>IF(_ygl_month_all!D31="","",_ygl_month_all!D31)</f>
         <v/>
       </c>
-      <c r="E36" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" ht="20.25" spans="1:10">
-      <c r="A37" s="14" t="str">
+      <c r="E36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" ht="20.4" spans="1:10">
+      <c r="A37" s="18" t="str">
         <f>IF(_ygl_month_all!A32="","",_ygl_month_all!A32)</f>
         <v/>
       </c>
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="19" t="str">
         <f>IF(_ygl_month_all!B32="","",_ygl_month_all!B32)</f>
         <v/>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="19" t="str">
         <f>IF(_ygl_month_all!C32="","",_ygl_month_all!C32)</f>
         <v/>
       </c>
-      <c r="D37" s="15" t="str">
+      <c r="D37" s="19" t="str">
         <f>IF(_ygl_month_all!D32="","",_ygl_month_all!D32)</f>
         <v/>
       </c>
-      <c r="E37" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" ht="20.25" spans="1:10">
-      <c r="A38" s="17" t="s">
+      <c r="E37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" ht="20.4" spans="1:10">
+      <c r="A38" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="21">
         <f>SUM(B7:B37)</f>
         <v>0</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="21">
         <f>SUM(C7:C37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="21">
         <f>SUM(D7:D37)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="22">
         <f>SUM(E7:E37)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="27"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -2352,22 +2361,25 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/excel/finished/原供料/4.煤头外排记录.xlsx
+++ b/excel/finished/原供料/4.煤头外排记录.xlsx
@@ -92,11 +92,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -178,6 +178,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,27 +251,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -221,7 +276,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -236,16 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,54 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="28"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -341,13 +341,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +473,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,37 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,109 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -669,6 +680,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,17 +717,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,17 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -746,15 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,145 +763,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,15 +1318,15 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.3796296296296" style="5"/>
-    <col min="2" max="2" width="13.6296296296296" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="6" width="9" style="6"/>
     <col min="7" max="7" width="3.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="3.37962962962963" style="6" hidden="1" customWidth="1"/>
@@ -1437,7 +1437,7 @@
         <v/>
       </c>
       <c r="E6" s="19">
-        <f t="shared" ref="E6:E36" si="0">SUM(B6:D6)</f>
+        <f>SUM(B6:D6)</f>
         <v>0</v>
       </c>
       <c r="F6" s="19"/>
@@ -1464,7 +1464,7 @@
         <v/>
       </c>
       <c r="E7" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E7:E36" si="0">SUM(B7:D7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="19"/>
